--- a/www/ig/nos/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
@@ -38,13 +38,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.175</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.175</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
@@ -16,12 +16,13 @@
     <sheet name="Include from TRE_R45-Fonction" r:id="rId10" sheetId="8"/>
     <sheet name="Include from TRE_R97-DroitExe" r:id="rId11" sheetId="9"/>
     <sheet name="Include from TRE_G13-Orientat" r:id="rId12" sheetId="10"/>
+    <sheet name="Include from TRE_G13-Orientat 2" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="569">
   <si>
     <t>Property</t>
   </si>
@@ -44,7 +45,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T12:00:00+01:00</t>
+    <t>2024-03-29T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -80,7 +81,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -584,7 +591,142 @@
     <t>Médecine interne et immunologie clinique (SM)</t>
   </si>
   <si>
-    <t/>
+    <t>SM73</t>
+  </si>
+  <si>
+    <t>Médecine cardiovasculaire (SM)</t>
+  </si>
+  <si>
+    <t>SM74</t>
+  </si>
+  <si>
+    <t>Radiologie et imagerie médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM75</t>
+  </si>
+  <si>
+    <t>Santé publique (SM)</t>
+  </si>
+  <si>
+    <t>SM76</t>
+  </si>
+  <si>
+    <t>Anesthésie-réanimation option anesthésie-pédiatrique (SM)</t>
+  </si>
+  <si>
+    <t>SM77</t>
+  </si>
+  <si>
+    <t>Chirurgie maxillo-faciale option orthodontie des dysmorphies maxillo-faciales (SM)</t>
+  </si>
+  <si>
+    <t>SM78</t>
+  </si>
+  <si>
+    <t>Chirurgie viscérale et digestive option endoscopie chirurgicale (SM)</t>
+  </si>
+  <si>
+    <t>SM79</t>
+  </si>
+  <si>
+    <t>Médecine cardiovasculaire option cardiologie interventionnelle (SM)</t>
+  </si>
+  <si>
+    <t>SM80</t>
+  </si>
+  <si>
+    <t>Médecine cardiovasculaire option imagerie cardio d'expert (SM)</t>
+  </si>
+  <si>
+    <t>SM81</t>
+  </si>
+  <si>
+    <t>Médecine cardiovasculaire option rythmologie interventionnelle et stimulation cardiaque (SM)</t>
+  </si>
+  <si>
+    <t>SM82</t>
+  </si>
+  <si>
+    <t>Médecine intensive-réanimation option réanimation pédiatrique (SM)</t>
+  </si>
+  <si>
+    <t>SM83</t>
+  </si>
+  <si>
+    <t>Néphrologie option soins intensifs néphrologiques (SM)</t>
+  </si>
+  <si>
+    <t>SM84</t>
+  </si>
+  <si>
+    <t>Neurologie option traitement interventionnel de l'ischémie cérébrale aigüe (SM)</t>
+  </si>
+  <si>
+    <t>SM85</t>
+  </si>
+  <si>
+    <t>Ophtalmo option chirurgie ophtalmopédiatrique et strabologique (SM)</t>
+  </si>
+  <si>
+    <t>SM86</t>
+  </si>
+  <si>
+    <t>ORL et chirurgie cervico-faciale option audiophonologie (SM)</t>
+  </si>
+  <si>
+    <t>SM87</t>
+  </si>
+  <si>
+    <t>Pédiatrie option néonatologie (SM)</t>
+  </si>
+  <si>
+    <t>SM88</t>
+  </si>
+  <si>
+    <t>Pédiatrie option neuropédiatrie (SM)</t>
+  </si>
+  <si>
+    <t>SM89</t>
+  </si>
+  <si>
+    <t>Pédiatrie option pneumopédiatrie (SM)</t>
+  </si>
+  <si>
+    <t>SM90</t>
+  </si>
+  <si>
+    <t>Pédiatrie option réanimation pédiatrique (SM)</t>
+  </si>
+  <si>
+    <t>SM91</t>
+  </si>
+  <si>
+    <t>Pneumologie option soins intensifs respiratoires (SM)</t>
+  </si>
+  <si>
+    <t>SM92</t>
+  </si>
+  <si>
+    <t>Psychiatrie option enfant et adolescent (SM)</t>
+  </si>
+  <si>
+    <t>SM93</t>
+  </si>
+  <si>
+    <t>Psychiatrie option psychiatrie personne âgée (SM)</t>
+  </si>
+  <si>
+    <t>SM94</t>
+  </si>
+  <si>
+    <t>Radiologie imagerie médicale option radiologie interventionnelle avancée (SM)</t>
+  </si>
+  <si>
+    <t>SM95</t>
+  </si>
+  <si>
+    <t>Santé publique option administration de la santé (SM)</t>
   </si>
   <si>
     <t>System URI</t>
@@ -1431,6 +1573,162 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_G13-OrientationParticuliere/FHIR/TRE-G13-OrientationParticuliere</t>
+  </si>
+  <si>
+    <t>SST01</t>
+  </si>
+  <si>
+    <t>Addictologie</t>
+  </si>
+  <si>
+    <t>SST02</t>
+  </si>
+  <si>
+    <t>Bio-informatique médicale</t>
+  </si>
+  <si>
+    <t>SST03</t>
+  </si>
+  <si>
+    <t>Cancérologie déclinaison hémato-cancérologie pédiatrique</t>
+  </si>
+  <si>
+    <t>SST04</t>
+  </si>
+  <si>
+    <t>Cancérologie traitements médicaux des cancers</t>
+  </si>
+  <si>
+    <t>SST05</t>
+  </si>
+  <si>
+    <t>Cardiologie pédiatrique et congénitale</t>
+  </si>
+  <si>
+    <t>SST06</t>
+  </si>
+  <si>
+    <t>Chirurgie de la main</t>
+  </si>
+  <si>
+    <t>SST07</t>
+  </si>
+  <si>
+    <t>Chirurgie en situation de guerre ou de catastrophe</t>
+  </si>
+  <si>
+    <t>SST08</t>
+  </si>
+  <si>
+    <t>Chirurgie orbito-palpébro-lacrymale</t>
+  </si>
+  <si>
+    <t>SST09</t>
+  </si>
+  <si>
+    <t>Douleur</t>
+  </si>
+  <si>
+    <t>SST10</t>
+  </si>
+  <si>
+    <t>Expertise médicale-préjudice corporel</t>
+  </si>
+  <si>
+    <t>SST11</t>
+  </si>
+  <si>
+    <t>Foetopathologie</t>
+  </si>
+  <si>
+    <t>SST12</t>
+  </si>
+  <si>
+    <t>Génétique et médecine moléculaire bioclinique</t>
+  </si>
+  <si>
+    <t>SST13</t>
+  </si>
+  <si>
+    <t>Hématologie bioclinique</t>
+  </si>
+  <si>
+    <t>SST14</t>
+  </si>
+  <si>
+    <t>Hygiène-prévention de l'infection, résistances</t>
+  </si>
+  <si>
+    <t>SST15</t>
+  </si>
+  <si>
+    <t>Maladies allergiques</t>
+  </si>
+  <si>
+    <t>SST16</t>
+  </si>
+  <si>
+    <t>Médecine hospitalière polyvalente</t>
+  </si>
+  <si>
+    <t>SST17</t>
+  </si>
+  <si>
+    <t>Médecine palliative</t>
+  </si>
+  <si>
+    <t>SST18</t>
+  </si>
+  <si>
+    <t>Médecine scolaire</t>
+  </si>
+  <si>
+    <t>SST19</t>
+  </si>
+  <si>
+    <t>Médecine en situation de guerre ou en SSE</t>
+  </si>
+  <si>
+    <t>SST20</t>
+  </si>
+  <si>
+    <t>Médecine et biologie de la reproduction-andrologie</t>
+  </si>
+  <si>
+    <t>SST21</t>
+  </si>
+  <si>
+    <t>Médecine du sport</t>
+  </si>
+  <si>
+    <t>SST22</t>
+  </si>
+  <si>
+    <t>Nutrition appliquée</t>
+  </si>
+  <si>
+    <t>SST23</t>
+  </si>
+  <si>
+    <t>Pharmacologie médicale/ thérapeutique</t>
+  </si>
+  <si>
+    <t>SST24</t>
+  </si>
+  <si>
+    <t>Sommeil</t>
+  </si>
+  <si>
+    <t>SST25</t>
+  </si>
+  <si>
+    <t>Thérapie cellulaire/ transfusion</t>
+  </si>
+  <si>
+    <t>SST26</t>
+  </si>
+  <si>
+    <t>Urgences pédiatriques</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1670,20 +1968,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1705,42 +2011,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>465</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>466</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>468</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>469</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -1748,9 +2054,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1762,666 +2068,1099 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>525</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>527</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>529</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>531</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>535</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>537</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>539</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>541</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>543</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>545</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>547</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>549</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>551</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>553</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>555</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>557</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>559</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>561</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>563</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>565</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>567</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
         <v>81</v>
       </c>
+      <c r="B28" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2443,370 +3182,370 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>191</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>193</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>195</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>197</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>201</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>203</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>205</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>207</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>209</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>211</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>213</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>215</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>217</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>219</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>221</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>223</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>225</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>251</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>253</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>255</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>257</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>259</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>261</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>263</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>265</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>267</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>273</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>275</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>276</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2828,58 +3567,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>278</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>280</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>282</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>284</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>285</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2901,354 +3640,354 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>287</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>289</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>291</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>293</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>295</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>297</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>299</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>301</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>303</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>305</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>307</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>309</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>311</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>313</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>315</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>317</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>319</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>321</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>323</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>325</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>327</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>329</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>331</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>333</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>335</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>337</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>339</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>341</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>343</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>345</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>347</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>349</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>351</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>353</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>355</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>357</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>359</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>361</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>363</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3270,154 +4009,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>370</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>372</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>374</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>376</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>378</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>380</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>382</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>384</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>386</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>388</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>390</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>392</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>394</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>396</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>398</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>400</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>401</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -3439,34 +4178,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>403</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>404</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -3488,66 +4227,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>406</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>408</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>410</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>412</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>414</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>415</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -3569,218 +4308,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>417</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>419</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>421</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>423</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>425</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>427</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>429</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>433</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>437</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>439</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>441</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>443</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>445</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>447</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>449</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>451</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>453</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>455</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>457</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>459</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>461</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>463</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>464</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
@@ -16,13 +16,12 @@
     <sheet name="Include from TRE_R45-Fonction" r:id="rId10" sheetId="8"/>
     <sheet name="Include from TRE_R97-DroitExe" r:id="rId11" sheetId="9"/>
     <sheet name="Include from TRE_G13-Orientat" r:id="rId12" sheetId="10"/>
-    <sheet name="Include from TRE_G13-Orientat 2" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +44,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2023-10-30T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,654 +80,513 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ensemble des savoir-faire et compétences du RASS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>SI01</t>
+  </si>
+  <si>
+    <t>Exercice infirmier en pratique avancée pathologies chroniques stabilisées (SI)</t>
+  </si>
+  <si>
+    <t>SI02</t>
+  </si>
+  <si>
+    <t>Exercice infirmier en pratique avancée oncologie et hémato-oncologie (SI)</t>
+  </si>
+  <si>
+    <t>SI03</t>
+  </si>
+  <si>
+    <t>Exercice infirmier en pratique avancée maladie rénale chronique (SI)</t>
+  </si>
+  <si>
+    <t>SI04</t>
+  </si>
+  <si>
+    <t>Exercice infirmier en pratique avancée santé mentale (SI)</t>
+  </si>
+  <si>
+    <t>SI05</t>
+  </si>
+  <si>
+    <t>Exercice infirmier en pratique avancée urgences (SI)</t>
+  </si>
+  <si>
+    <t>SCD01</t>
+  </si>
+  <si>
+    <t>Orthopédie dento-faciale (SCD)</t>
+  </si>
+  <si>
+    <t>SCD02</t>
+  </si>
+  <si>
+    <t>Chirurgie orale (SCD)</t>
+  </si>
+  <si>
+    <t>SCD03</t>
+  </si>
+  <si>
+    <t>Médecine bucco-dentaire (SCD)</t>
+  </si>
+  <si>
+    <t>SM01</t>
+  </si>
+  <si>
+    <t>Anatomie et Cytologie pathologiques (SM)</t>
+  </si>
+  <si>
+    <t>SM02</t>
+  </si>
+  <si>
+    <t>Anesthésie-réanimation (SM)</t>
+  </si>
+  <si>
+    <t>SM03</t>
+  </si>
+  <si>
+    <t>Biologie médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM04</t>
+  </si>
+  <si>
+    <t>Cardiologie et Maladies vasculaires (SM)</t>
+  </si>
+  <si>
+    <t>SM05</t>
+  </si>
+  <si>
+    <t>Chirurgie générale (SM)</t>
+  </si>
+  <si>
+    <t>SM06</t>
+  </si>
+  <si>
+    <t>Chirurgie maxillo-faciale (SM)</t>
+  </si>
+  <si>
+    <t>SM07</t>
+  </si>
+  <si>
+    <t>Chirurgie maxillo-faciale et Stomatologie (SM)</t>
+  </si>
+  <si>
+    <t>SM08</t>
+  </si>
+  <si>
+    <t>Chirurgie orthopédique et Traumatologie (SM)</t>
+  </si>
+  <si>
+    <t>SM09</t>
+  </si>
+  <si>
+    <t>Chirurgie infantile (SM)</t>
+  </si>
+  <si>
+    <t>SM10</t>
+  </si>
+  <si>
+    <t>Chirurgie plastique reconstructrice et esthétique (SM)</t>
+  </si>
+  <si>
+    <t>SM11</t>
+  </si>
+  <si>
+    <t>Chirurgie thoracique et cardio-vasculaire (SM)</t>
+  </si>
+  <si>
+    <t>SM12</t>
+  </si>
+  <si>
+    <t>Chirurgie urologique (SM)</t>
+  </si>
+  <si>
+    <t>SM13</t>
+  </si>
+  <si>
+    <t>Chirurgie vasculaire (SM)</t>
+  </si>
+  <si>
+    <t>SM14</t>
+  </si>
+  <si>
+    <t>Chirurgie viscérale et digestive (SM)</t>
+  </si>
+  <si>
+    <t>SM15</t>
+  </si>
+  <si>
+    <t>Dermatologie et Vénéréologie (SM)</t>
+  </si>
+  <si>
+    <t>SM16</t>
+  </si>
+  <si>
+    <t>Endocrinologie et Métabolisme (SM)</t>
+  </si>
+  <si>
+    <t>SM17</t>
+  </si>
+  <si>
+    <t>Génétique médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM18</t>
+  </si>
+  <si>
+    <t>Gériatrie (SM)</t>
+  </si>
+  <si>
+    <t>SM19</t>
+  </si>
+  <si>
+    <t>Gynécologie médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM20</t>
+  </si>
+  <si>
+    <t>Gynécologie-obstétrique (SM)</t>
+  </si>
+  <si>
+    <t>SM21</t>
+  </si>
+  <si>
+    <t>Hématologie (SM)</t>
+  </si>
+  <si>
+    <t>SM22</t>
+  </si>
+  <si>
+    <t>Hématologie, option Maladie du sang (SM)</t>
+  </si>
+  <si>
+    <t>SM23</t>
+  </si>
+  <si>
+    <t>Hématologie, option Onco-hématologie (SM)</t>
+  </si>
+  <si>
+    <t>SM24</t>
+  </si>
+  <si>
+    <t>Gastro-entérologie et Hépatologie (SM)</t>
+  </si>
+  <si>
+    <t>SM25</t>
+  </si>
+  <si>
+    <t>Médecine du travail (SM)</t>
+  </si>
+  <si>
+    <t>SM26</t>
+  </si>
+  <si>
+    <t>Qualifié en Médecine générale (SM)</t>
+  </si>
+  <si>
+    <t>SM27</t>
+  </si>
+  <si>
+    <t>Médecine interne (SM)</t>
+  </si>
+  <si>
+    <t>SM28</t>
+  </si>
+  <si>
+    <t>Médecine nucléaire (SM)</t>
+  </si>
+  <si>
+    <t>SM29</t>
+  </si>
+  <si>
+    <t>Médecine physique et de réadaptation (SM)</t>
+  </si>
+  <si>
+    <t>SM30</t>
+  </si>
+  <si>
+    <t>Néphrologie (SM)</t>
+  </si>
+  <si>
+    <t>SM31</t>
+  </si>
+  <si>
+    <t>Neuro-chirurgie (SM)</t>
+  </si>
+  <si>
+    <t>SM32</t>
+  </si>
+  <si>
+    <t>Neurologie (SM)</t>
+  </si>
+  <si>
+    <t>SM33</t>
+  </si>
+  <si>
+    <t>Neuro-psychiatrie (SM)</t>
+  </si>
+  <si>
+    <t>SM34</t>
+  </si>
+  <si>
+    <t>ORL et Chirurgie cervico-faciale (SM)</t>
+  </si>
+  <si>
+    <t>SM35</t>
+  </si>
+  <si>
+    <t>Oncologie, option Onco-hématologie (SM)</t>
+  </si>
+  <si>
+    <t>SM36</t>
+  </si>
+  <si>
+    <t>Oncologie, option médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM37</t>
+  </si>
+  <si>
+    <t>Oncologie, option radiothérapie (SM)</t>
+  </si>
+  <si>
+    <t>SM38</t>
+  </si>
+  <si>
+    <t>Ophtalmologie (SM)</t>
+  </si>
+  <si>
+    <t>SM39</t>
+  </si>
+  <si>
+    <t>Oto-rhino-laryngologie (SM)</t>
+  </si>
+  <si>
+    <t>SM40</t>
+  </si>
+  <si>
+    <t>Pédiatrie (SM)</t>
+  </si>
+  <si>
+    <t>SM41</t>
+  </si>
+  <si>
+    <t>Pneumologie (SM)</t>
+  </si>
+  <si>
+    <t>SM42</t>
+  </si>
+  <si>
+    <t>Psychiatrie (SM)</t>
+  </si>
+  <si>
+    <t>SM43</t>
+  </si>
+  <si>
+    <t>Psychiatrie, option enfant et adolescent (SM)</t>
+  </si>
+  <si>
+    <t>SM44</t>
+  </si>
+  <si>
+    <t>Radio-diagnostic (SM)</t>
+  </si>
+  <si>
+    <t>SM45</t>
+  </si>
+  <si>
+    <t>Radio-thérapie (SM)</t>
+  </si>
+  <si>
+    <t>SM46</t>
+  </si>
+  <si>
+    <t>Médecine intensive-réanimation (SM)</t>
+  </si>
+  <si>
+    <t>SM47</t>
+  </si>
+  <si>
+    <t>Recherche médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM48</t>
+  </si>
+  <si>
+    <t>Rhumatologie (SM)</t>
+  </si>
+  <si>
+    <t>SM49</t>
+  </si>
+  <si>
+    <t>Santé publique et Médecine sociale (SM)</t>
+  </si>
+  <si>
+    <t>SM50</t>
+  </si>
+  <si>
+    <t>Stomatologie (SM)</t>
+  </si>
+  <si>
+    <t>SM51</t>
+  </si>
+  <si>
+    <t>Gynéco-obstétrique et Gynéco-médicale, option Gynéco-obstétrique (SM)</t>
+  </si>
+  <si>
+    <t>SM52</t>
+  </si>
+  <si>
+    <t>Gynéco-obstétrique et Gynéco-médicale, option Gynéco-médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM53</t>
+  </si>
+  <si>
+    <t>Spécialiste en Médecine générale (SM)</t>
+  </si>
+  <si>
+    <t>SM54</t>
+  </si>
+  <si>
+    <t>Médecine générale (SM)</t>
+  </si>
+  <si>
+    <t>SM55</t>
+  </si>
+  <si>
+    <t>Radio-diagnostic et Radio-thérapie (SM)</t>
+  </si>
+  <si>
+    <t>SM56</t>
+  </si>
+  <si>
+    <t>Chirurgie orale (SM)</t>
+  </si>
+  <si>
+    <t>SM57</t>
+  </si>
+  <si>
+    <t>Allergologie (SM)</t>
+  </si>
+  <si>
+    <t>SM58</t>
+  </si>
+  <si>
+    <t>Maladies infectieuses et tropicales (SM)</t>
+  </si>
+  <si>
+    <t>SM59</t>
+  </si>
+  <si>
+    <t>Médecine d'urgence (SM)</t>
+  </si>
+  <si>
+    <t>SM60</t>
+  </si>
+  <si>
+    <t>Médecine légale et expertises médicales (SM)</t>
+  </si>
+  <si>
+    <t>SM61</t>
+  </si>
+  <si>
+    <t>Médecine vasculaire (SM)</t>
+  </si>
+  <si>
+    <t>SM62</t>
+  </si>
+  <si>
+    <t>Endocrinologie, diabétologie, nutrition (SM)</t>
+  </si>
+  <si>
+    <t>SM63</t>
+  </si>
+  <si>
+    <t>Biologie médicale option biologie générale (SM)</t>
+  </si>
+  <si>
+    <t>SM64</t>
+  </si>
+  <si>
+    <t>Biologie médicale option médecine moléculaire, génétique et pharmacologie (SM)</t>
+  </si>
+  <si>
+    <t>SM65</t>
+  </si>
+  <si>
+    <t>Biologie médicale option hématologie et immunologie (SM)</t>
+  </si>
+  <si>
+    <t>SM66</t>
+  </si>
+  <si>
+    <t>Biologie médicale option agents infectieux (SM)</t>
+  </si>
+  <si>
+    <t>SM67</t>
+  </si>
+  <si>
+    <t>Biologie médicale option biologie de la reproduction (SM)</t>
+  </si>
+  <si>
+    <t>SM68</t>
+  </si>
+  <si>
+    <t>Chirurgie maxillo-faciale (réforme 2017) (SM)</t>
+  </si>
+  <si>
+    <t>SM69</t>
+  </si>
+  <si>
+    <t>Chirurgie pédiatrique option chirurgie viscérale pédiatrique (SM)</t>
+  </si>
+  <si>
+    <t>SM70</t>
+  </si>
+  <si>
+    <t>Chirurgie pédiatrique option orthopédie pédiatrique (SM)</t>
+  </si>
+  <si>
+    <t>SM71</t>
+  </si>
+  <si>
+    <t>Hématologie (réforme 2017) (SM)</t>
+  </si>
+  <si>
+    <t>SM72</t>
+  </si>
+  <si>
+    <t>Médecine interne et immunologie clinique (SM)</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Ensemble des savoir-faire et compétences du RASS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>SI01</t>
-  </si>
-  <si>
-    <t>Exercice infirmier en pratique avancée pathologies chroniques stabilisées (SI)</t>
-  </si>
-  <si>
-    <t>SI02</t>
-  </si>
-  <si>
-    <t>Exercice infirmier en pratique avancée oncologie et hémato-oncologie (SI)</t>
-  </si>
-  <si>
-    <t>SI03</t>
-  </si>
-  <si>
-    <t>Exercice infirmier en pratique avancée maladie rénale chronique (SI)</t>
-  </si>
-  <si>
-    <t>SI04</t>
-  </si>
-  <si>
-    <t>Exercice infirmier en pratique avancée santé mentale (SI)</t>
-  </si>
-  <si>
-    <t>SI05</t>
-  </si>
-  <si>
-    <t>Exercice infirmier en pratique avancée urgences (SI)</t>
-  </si>
-  <si>
-    <t>SCD01</t>
-  </si>
-  <si>
-    <t>Orthopédie dento-faciale (SCD)</t>
-  </si>
-  <si>
-    <t>SCD02</t>
-  </si>
-  <si>
-    <t>Chirurgie orale (SCD)</t>
-  </si>
-  <si>
-    <t>SCD03</t>
-  </si>
-  <si>
-    <t>Médecine bucco-dentaire (SCD)</t>
-  </si>
-  <si>
-    <t>SM01</t>
-  </si>
-  <si>
-    <t>Anatomie et Cytologie pathologiques (SM)</t>
-  </si>
-  <si>
-    <t>SM02</t>
-  </si>
-  <si>
-    <t>Anesthésie-réanimation (SM)</t>
-  </si>
-  <si>
-    <t>SM03</t>
-  </si>
-  <si>
-    <t>Biologie médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM04</t>
-  </si>
-  <si>
-    <t>Cardiologie et Maladies vasculaires (SM)</t>
-  </si>
-  <si>
-    <t>SM05</t>
-  </si>
-  <si>
-    <t>Chirurgie générale (SM)</t>
-  </si>
-  <si>
-    <t>SM06</t>
-  </si>
-  <si>
-    <t>Chirurgie maxillo-faciale (SM)</t>
-  </si>
-  <si>
-    <t>SM07</t>
-  </si>
-  <si>
-    <t>Chirurgie maxillo-faciale et Stomatologie (SM)</t>
-  </si>
-  <si>
-    <t>SM08</t>
-  </si>
-  <si>
-    <t>Chirurgie orthopédique et Traumatologie (SM)</t>
-  </si>
-  <si>
-    <t>SM09</t>
-  </si>
-  <si>
-    <t>Chirurgie infantile (SM)</t>
-  </si>
-  <si>
-    <t>SM10</t>
-  </si>
-  <si>
-    <t>Chirurgie plastique reconstructrice et esthétique (SM)</t>
-  </si>
-  <si>
-    <t>SM11</t>
-  </si>
-  <si>
-    <t>Chirurgie thoracique et cardio-vasculaire (SM)</t>
-  </si>
-  <si>
-    <t>SM12</t>
-  </si>
-  <si>
-    <t>Chirurgie urologique (SM)</t>
-  </si>
-  <si>
-    <t>SM13</t>
-  </si>
-  <si>
-    <t>Chirurgie vasculaire (SM)</t>
-  </si>
-  <si>
-    <t>SM14</t>
-  </si>
-  <si>
-    <t>Chirurgie viscérale et digestive (SM)</t>
-  </si>
-  <si>
-    <t>SM15</t>
-  </si>
-  <si>
-    <t>Dermatologie et Vénéréologie (SM)</t>
-  </si>
-  <si>
-    <t>SM16</t>
-  </si>
-  <si>
-    <t>Endocrinologie et Métabolisme (SM)</t>
-  </si>
-  <si>
-    <t>SM17</t>
-  </si>
-  <si>
-    <t>Génétique médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM18</t>
-  </si>
-  <si>
-    <t>Gériatrie (SM)</t>
-  </si>
-  <si>
-    <t>SM19</t>
-  </si>
-  <si>
-    <t>Gynécologie médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM20</t>
-  </si>
-  <si>
-    <t>Gynécologie-obstétrique (SM)</t>
-  </si>
-  <si>
-    <t>SM21</t>
-  </si>
-  <si>
-    <t>Hématologie (SM)</t>
-  </si>
-  <si>
-    <t>SM22</t>
-  </si>
-  <si>
-    <t>Hématologie, option Maladie du sang (SM)</t>
-  </si>
-  <si>
-    <t>SM23</t>
-  </si>
-  <si>
-    <t>Hématologie, option Onco-hématologie (SM)</t>
-  </si>
-  <si>
-    <t>SM24</t>
-  </si>
-  <si>
-    <t>Gastro-entérologie et Hépatologie (SM)</t>
-  </si>
-  <si>
-    <t>SM25</t>
-  </si>
-  <si>
-    <t>Médecine du travail (SM)</t>
-  </si>
-  <si>
-    <t>SM26</t>
-  </si>
-  <si>
-    <t>Qualifié en Médecine générale (SM)</t>
-  </si>
-  <si>
-    <t>SM27</t>
-  </si>
-  <si>
-    <t>Médecine interne (SM)</t>
-  </si>
-  <si>
-    <t>SM28</t>
-  </si>
-  <si>
-    <t>Médecine nucléaire (SM)</t>
-  </si>
-  <si>
-    <t>SM29</t>
-  </si>
-  <si>
-    <t>Médecine physique et de réadaptation (SM)</t>
-  </si>
-  <si>
-    <t>SM30</t>
-  </si>
-  <si>
-    <t>Néphrologie (SM)</t>
-  </si>
-  <si>
-    <t>SM31</t>
-  </si>
-  <si>
-    <t>Neuro-chirurgie (SM)</t>
-  </si>
-  <si>
-    <t>SM32</t>
-  </si>
-  <si>
-    <t>Neurologie (SM)</t>
-  </si>
-  <si>
-    <t>SM33</t>
-  </si>
-  <si>
-    <t>Neuro-psychiatrie (SM)</t>
-  </si>
-  <si>
-    <t>SM34</t>
-  </si>
-  <si>
-    <t>ORL et Chirurgie cervico-faciale (SM)</t>
-  </si>
-  <si>
-    <t>SM35</t>
-  </si>
-  <si>
-    <t>Oncologie, option Onco-hématologie (SM)</t>
-  </si>
-  <si>
-    <t>SM36</t>
-  </si>
-  <si>
-    <t>Oncologie, option médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM37</t>
-  </si>
-  <si>
-    <t>Oncologie, option radiothérapie (SM)</t>
-  </si>
-  <si>
-    <t>SM38</t>
-  </si>
-  <si>
-    <t>Ophtalmologie (SM)</t>
-  </si>
-  <si>
-    <t>SM39</t>
-  </si>
-  <si>
-    <t>Oto-rhino-laryngologie (SM)</t>
-  </si>
-  <si>
-    <t>SM40</t>
-  </si>
-  <si>
-    <t>Pédiatrie (SM)</t>
-  </si>
-  <si>
-    <t>SM41</t>
-  </si>
-  <si>
-    <t>Pneumologie (SM)</t>
-  </si>
-  <si>
-    <t>SM42</t>
-  </si>
-  <si>
-    <t>Psychiatrie (SM)</t>
-  </si>
-  <si>
-    <t>SM43</t>
-  </si>
-  <si>
-    <t>Psychiatrie, option enfant et adolescent (SM)</t>
-  </si>
-  <si>
-    <t>SM44</t>
-  </si>
-  <si>
-    <t>Radio-diagnostic (SM)</t>
-  </si>
-  <si>
-    <t>SM45</t>
-  </si>
-  <si>
-    <t>Radio-thérapie (SM)</t>
-  </si>
-  <si>
-    <t>SM46</t>
-  </si>
-  <si>
-    <t>Médecine intensive-réanimation (SM)</t>
-  </si>
-  <si>
-    <t>SM47</t>
-  </si>
-  <si>
-    <t>Recherche médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM48</t>
-  </si>
-  <si>
-    <t>Rhumatologie (SM)</t>
-  </si>
-  <si>
-    <t>SM49</t>
-  </si>
-  <si>
-    <t>Santé publique et Médecine sociale (SM)</t>
-  </si>
-  <si>
-    <t>SM50</t>
-  </si>
-  <si>
-    <t>Stomatologie (SM)</t>
-  </si>
-  <si>
-    <t>SM51</t>
-  </si>
-  <si>
-    <t>Gynéco-obstétrique et Gynéco-médicale, option Gynéco-obstétrique (SM)</t>
-  </si>
-  <si>
-    <t>SM52</t>
-  </si>
-  <si>
-    <t>Gynéco-obstétrique et Gynéco-médicale, option Gynéco-médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM53</t>
-  </si>
-  <si>
-    <t>Spécialiste en Médecine générale (SM)</t>
-  </si>
-  <si>
-    <t>SM54</t>
-  </si>
-  <si>
-    <t>Médecine générale (SM)</t>
-  </si>
-  <si>
-    <t>SM55</t>
-  </si>
-  <si>
-    <t>Radio-diagnostic et Radio-thérapie (SM)</t>
-  </si>
-  <si>
-    <t>SM56</t>
-  </si>
-  <si>
-    <t>Chirurgie orale (SM)</t>
-  </si>
-  <si>
-    <t>SM57</t>
-  </si>
-  <si>
-    <t>Allergologie (SM)</t>
-  </si>
-  <si>
-    <t>SM58</t>
-  </si>
-  <si>
-    <t>Maladies infectieuses et tropicales (SM)</t>
-  </si>
-  <si>
-    <t>SM59</t>
-  </si>
-  <si>
-    <t>Médecine d'urgence (SM)</t>
-  </si>
-  <si>
-    <t>SM60</t>
-  </si>
-  <si>
-    <t>Médecine légale et expertises médicales (SM)</t>
-  </si>
-  <si>
-    <t>SM61</t>
-  </si>
-  <si>
-    <t>Médecine vasculaire (SM)</t>
-  </si>
-  <si>
-    <t>SM62</t>
-  </si>
-  <si>
-    <t>Endocrinologie, diabétologie, nutrition (SM)</t>
-  </si>
-  <si>
-    <t>SM63</t>
-  </si>
-  <si>
-    <t>Biologie médicale option biologie générale (SM)</t>
-  </si>
-  <si>
-    <t>SM64</t>
-  </si>
-  <si>
-    <t>Biologie médicale option médecine moléculaire, génétique et pharmacologie (SM)</t>
-  </si>
-  <si>
-    <t>SM65</t>
-  </si>
-  <si>
-    <t>Biologie médicale option hématologie et immunologie (SM)</t>
-  </si>
-  <si>
-    <t>SM66</t>
-  </si>
-  <si>
-    <t>Biologie médicale option agents infectieux (SM)</t>
-  </si>
-  <si>
-    <t>SM67</t>
-  </si>
-  <si>
-    <t>Biologie médicale option biologie de la reproduction (SM)</t>
-  </si>
-  <si>
-    <t>SM68</t>
-  </si>
-  <si>
-    <t>Chirurgie maxillo-faciale (réforme 2017) (SM)</t>
-  </si>
-  <si>
-    <t>SM69</t>
-  </si>
-  <si>
-    <t>Chirurgie pédiatrique option chirurgie viscérale pédiatrique (SM)</t>
-  </si>
-  <si>
-    <t>SM70</t>
-  </si>
-  <si>
-    <t>Chirurgie pédiatrique option orthopédie pédiatrique (SM)</t>
-  </si>
-  <si>
-    <t>SM71</t>
-  </si>
-  <si>
-    <t>Hématologie (réforme 2017) (SM)</t>
-  </si>
-  <si>
-    <t>SM72</t>
-  </si>
-  <si>
-    <t>Médecine interne et immunologie clinique (SM)</t>
-  </si>
-  <si>
-    <t>SM73</t>
-  </si>
-  <si>
-    <t>Médecine cardiovasculaire (SM)</t>
-  </si>
-  <si>
-    <t>SM74</t>
-  </si>
-  <si>
-    <t>Radiologie et imagerie médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM75</t>
-  </si>
-  <si>
-    <t>Santé publique (SM)</t>
-  </si>
-  <si>
-    <t>SM76</t>
-  </si>
-  <si>
-    <t>Anesthésie-réanimation option anesthésie-pédiatrique (SM)</t>
-  </si>
-  <si>
-    <t>SM77</t>
-  </si>
-  <si>
-    <t>Chirurgie maxillo-faciale option orthodontie des dysmorphies maxillo-faciales (SM)</t>
-  </si>
-  <si>
-    <t>SM78</t>
-  </si>
-  <si>
-    <t>Chirurgie viscérale et digestive option endoscopie chirurgicale (SM)</t>
-  </si>
-  <si>
-    <t>SM79</t>
-  </si>
-  <si>
-    <t>Médecine cardiovasculaire option cardiologie interventionnelle (SM)</t>
-  </si>
-  <si>
-    <t>SM80</t>
-  </si>
-  <si>
-    <t>Médecine cardiovasculaire option imagerie cardio d'expert (SM)</t>
-  </si>
-  <si>
-    <t>SM81</t>
-  </si>
-  <si>
-    <t>Médecine cardiovasculaire option rythmologie interventionnelle et stimulation cardiaque (SM)</t>
-  </si>
-  <si>
-    <t>SM82</t>
-  </si>
-  <si>
-    <t>Médecine intensive-réanimation option réanimation pédiatrique (SM)</t>
-  </si>
-  <si>
-    <t>SM83</t>
-  </si>
-  <si>
-    <t>Néphrologie option soins intensifs néphrologiques (SM)</t>
-  </si>
-  <si>
-    <t>SM84</t>
-  </si>
-  <si>
-    <t>Neurologie option traitement interventionnel de l'ischémie cérébrale aigüe (SM)</t>
-  </si>
-  <si>
-    <t>SM85</t>
-  </si>
-  <si>
-    <t>Ophtalmo option chirurgie ophtalmopédiatrique et strabologique (SM)</t>
-  </si>
-  <si>
-    <t>SM86</t>
-  </si>
-  <si>
-    <t>ORL et chirurgie cervico-faciale option audiophonologie (SM)</t>
-  </si>
-  <si>
-    <t>SM87</t>
-  </si>
-  <si>
-    <t>Pédiatrie option néonatologie (SM)</t>
-  </si>
-  <si>
-    <t>SM88</t>
-  </si>
-  <si>
-    <t>Pédiatrie option neuropédiatrie (SM)</t>
-  </si>
-  <si>
-    <t>SM89</t>
-  </si>
-  <si>
-    <t>Pédiatrie option pneumopédiatrie (SM)</t>
-  </si>
-  <si>
-    <t>SM90</t>
-  </si>
-  <si>
-    <t>Pédiatrie option réanimation pédiatrique (SM)</t>
-  </si>
-  <si>
-    <t>SM91</t>
-  </si>
-  <si>
-    <t>Pneumologie option soins intensifs respiratoires (SM)</t>
-  </si>
-  <si>
-    <t>SM92</t>
-  </si>
-  <si>
-    <t>Psychiatrie option enfant et adolescent (SM)</t>
-  </si>
-  <si>
-    <t>SM93</t>
-  </si>
-  <si>
-    <t>Psychiatrie option psychiatrie personne âgée (SM)</t>
-  </si>
-  <si>
-    <t>SM94</t>
-  </si>
-  <si>
-    <t>Radiologie imagerie médicale option radiologie interventionnelle avancée (SM)</t>
-  </si>
-  <si>
-    <t>SM95</t>
-  </si>
-  <si>
-    <t>Santé publique option administration de la santé (SM)</t>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
@@ -1573,162 +1431,6 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_G13-OrientationParticuliere/FHIR/TRE-G13-OrientationParticuliere</t>
-  </si>
-  <si>
-    <t>SST01</t>
-  </si>
-  <si>
-    <t>Addictologie</t>
-  </si>
-  <si>
-    <t>SST02</t>
-  </si>
-  <si>
-    <t>Bio-informatique médicale</t>
-  </si>
-  <si>
-    <t>SST03</t>
-  </si>
-  <si>
-    <t>Cancérologie déclinaison hémato-cancérologie pédiatrique</t>
-  </si>
-  <si>
-    <t>SST04</t>
-  </si>
-  <si>
-    <t>Cancérologie traitements médicaux des cancers</t>
-  </si>
-  <si>
-    <t>SST05</t>
-  </si>
-  <si>
-    <t>Cardiologie pédiatrique et congénitale</t>
-  </si>
-  <si>
-    <t>SST06</t>
-  </si>
-  <si>
-    <t>Chirurgie de la main</t>
-  </si>
-  <si>
-    <t>SST07</t>
-  </si>
-  <si>
-    <t>Chirurgie en situation de guerre ou de catastrophe</t>
-  </si>
-  <si>
-    <t>SST08</t>
-  </si>
-  <si>
-    <t>Chirurgie orbito-palpébro-lacrymale</t>
-  </si>
-  <si>
-    <t>SST09</t>
-  </si>
-  <si>
-    <t>Douleur</t>
-  </si>
-  <si>
-    <t>SST10</t>
-  </si>
-  <si>
-    <t>Expertise médicale-préjudice corporel</t>
-  </si>
-  <si>
-    <t>SST11</t>
-  </si>
-  <si>
-    <t>Foetopathologie</t>
-  </si>
-  <si>
-    <t>SST12</t>
-  </si>
-  <si>
-    <t>Génétique et médecine moléculaire bioclinique</t>
-  </si>
-  <si>
-    <t>SST13</t>
-  </si>
-  <si>
-    <t>Hématologie bioclinique</t>
-  </si>
-  <si>
-    <t>SST14</t>
-  </si>
-  <si>
-    <t>Hygiène-prévention de l'infection, résistances</t>
-  </si>
-  <si>
-    <t>SST15</t>
-  </si>
-  <si>
-    <t>Maladies allergiques</t>
-  </si>
-  <si>
-    <t>SST16</t>
-  </si>
-  <si>
-    <t>Médecine hospitalière polyvalente</t>
-  </si>
-  <si>
-    <t>SST17</t>
-  </si>
-  <si>
-    <t>Médecine palliative</t>
-  </si>
-  <si>
-    <t>SST18</t>
-  </si>
-  <si>
-    <t>Médecine scolaire</t>
-  </si>
-  <si>
-    <t>SST19</t>
-  </si>
-  <si>
-    <t>Médecine en situation de guerre ou en SSE</t>
-  </si>
-  <si>
-    <t>SST20</t>
-  </si>
-  <si>
-    <t>Médecine et biologie de la reproduction-andrologie</t>
-  </si>
-  <si>
-    <t>SST21</t>
-  </si>
-  <si>
-    <t>Médecine du sport</t>
-  </si>
-  <si>
-    <t>SST22</t>
-  </si>
-  <si>
-    <t>Nutrition appliquée</t>
-  </si>
-  <si>
-    <t>SST23</t>
-  </si>
-  <si>
-    <t>Pharmacologie médicale/ thérapeutique</t>
-  </si>
-  <si>
-    <t>SST24</t>
-  </si>
-  <si>
-    <t>Sommeil</t>
-  </si>
-  <si>
-    <t>SST25</t>
-  </si>
-  <si>
-    <t>Thérapie cellulaire/ transfusion</t>
-  </si>
-  <si>
-    <t>SST26</t>
-  </si>
-  <si>
-    <t>Urgences pédiatriques</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1968,28 +1670,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2011,42 +1705,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>513</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>514</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>515</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>516</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -2054,9 +1748,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2068,1099 +1762,666 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>517</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>518</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>519</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>520</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>521</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>522</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>523</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>524</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>525</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>526</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>527</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>528</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>529</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>530</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>532</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>533</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>534</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>535</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>536</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>537</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>538</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>539</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>540</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>541</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>542</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>543</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>544</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>545</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>546</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>547</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>548</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>549</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>550</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>551</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>552</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>553</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>554</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>555</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>556</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>557</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>558</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>559</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>560</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>561</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>562</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>563</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>564</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>565</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>566</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>567</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>568</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>516</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B106"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B28" t="s" s="2">
         <v>82</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>236</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3182,370 +2443,370 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>238</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>240</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>242</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>244</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>246</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>248</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>250</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>252</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>254</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>256</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>258</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>260</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>262</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>266</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>268</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>272</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>274</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>278</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>280</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>282</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>284</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>286</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>292</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>294</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>310</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>320</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>322</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3567,58 +2828,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>325</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>327</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>329</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>331</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>332</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3640,354 +2901,354 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>334</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>336</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>338</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>340</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>342</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>344</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>346</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>348</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>350</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>352</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>354</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>356</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>358</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>360</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>362</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>364</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>366</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>368</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>370</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>372</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>374</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>376</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>378</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>380</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>382</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>384</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>386</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>388</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>390</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>392</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>394</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>396</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>398</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>400</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>402</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>404</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>406</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>408</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>410</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>412</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>415</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -4009,154 +3270,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>417</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>419</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>421</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>423</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>425</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>427</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>429</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>431</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>433</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>435</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>437</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>439</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>441</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>443</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>445</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>447</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>448</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -4178,34 +3439,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>450</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>451</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -4227,66 +3488,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>453</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>455</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>457</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>459</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>461</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>462</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -4308,218 +3569,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>464</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>466</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>468</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>470</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>472</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>474</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>476</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>478</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>480</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>482</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>484</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>486</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>488</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>490</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>492</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>494</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>496</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>498</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>499</v>
+        <v>452</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>502</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>504</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>506</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>507</v>
+        <v>460</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>508</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>510</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>511</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
@@ -16,13 +16,13 @@
     <sheet name="Include from TRE_R45-Fonction" r:id="rId10" sheetId="8"/>
     <sheet name="Include from TRE_R97-DroitExe" r:id="rId11" sheetId="9"/>
     <sheet name="Include from TRE_G13-Orientat" r:id="rId12" sheetId="10"/>
-    <sheet name="Include from TRE_G13-Orientat 2" r:id="rId13" sheetId="11"/>
+    <sheet name="Include from TRE_R359-Surspec" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="569">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2024-10-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,651 +84,648 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ensemble des savoir-faire et compétences du RASS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>SI01</t>
+  </si>
+  <si>
+    <t>Exercice infirmier en pratique avancée pathologies chroniques stabilisées (SI)</t>
+  </si>
+  <si>
+    <t>SI02</t>
+  </si>
+  <si>
+    <t>Exercice infirmier en pratique avancée oncologie et hémato-oncologie (SI)</t>
+  </si>
+  <si>
+    <t>SI03</t>
+  </si>
+  <si>
+    <t>Exercice infirmier en pratique avancée maladie rénale chronique (SI)</t>
+  </si>
+  <si>
+    <t>SI04</t>
+  </si>
+  <si>
+    <t>Exercice infirmier en pratique avancée santé mentale (SI)</t>
+  </si>
+  <si>
+    <t>SI05</t>
+  </si>
+  <si>
+    <t>Exercice infirmier en pratique avancée urgences (SI)</t>
+  </si>
+  <si>
+    <t>SCD01</t>
+  </si>
+  <si>
+    <t>Orthopédie dento-faciale (SCD)</t>
+  </si>
+  <si>
+    <t>SCD02</t>
+  </si>
+  <si>
+    <t>Chirurgie orale (SCD)</t>
+  </si>
+  <si>
+    <t>SCD03</t>
+  </si>
+  <si>
+    <t>Médecine bucco-dentaire (SCD)</t>
+  </si>
+  <si>
+    <t>SM01</t>
+  </si>
+  <si>
+    <t>Anatomie et Cytologie pathologiques (SM)</t>
+  </si>
+  <si>
+    <t>SM02</t>
+  </si>
+  <si>
+    <t>Anesthésie-réanimation (SM)</t>
+  </si>
+  <si>
+    <t>SM03</t>
+  </si>
+  <si>
+    <t>Biologie médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM04</t>
+  </si>
+  <si>
+    <t>Cardiologie et Maladies vasculaires (SM)</t>
+  </si>
+  <si>
+    <t>SM05</t>
+  </si>
+  <si>
+    <t>Chirurgie générale (SM)</t>
+  </si>
+  <si>
+    <t>SM06</t>
+  </si>
+  <si>
+    <t>Chirurgie maxillo-faciale (SM)</t>
+  </si>
+  <si>
+    <t>SM07</t>
+  </si>
+  <si>
+    <t>Chirurgie maxillo-faciale et Stomatologie (SM)</t>
+  </si>
+  <si>
+    <t>SM08</t>
+  </si>
+  <si>
+    <t>Chirurgie orthopédique et Traumatologie (SM)</t>
+  </si>
+  <si>
+    <t>SM09</t>
+  </si>
+  <si>
+    <t>Chirurgie infantile (SM)</t>
+  </si>
+  <si>
+    <t>SM10</t>
+  </si>
+  <si>
+    <t>Chirurgie plastique reconstructrice et esthétique (SM)</t>
+  </si>
+  <si>
+    <t>SM11</t>
+  </si>
+  <si>
+    <t>Chirurgie thoracique et cardio-vasculaire (SM)</t>
+  </si>
+  <si>
+    <t>SM12</t>
+  </si>
+  <si>
+    <t>Chirurgie urologique (SM)</t>
+  </si>
+  <si>
+    <t>SM13</t>
+  </si>
+  <si>
+    <t>Chirurgie vasculaire (SM)</t>
+  </si>
+  <si>
+    <t>SM14</t>
+  </si>
+  <si>
+    <t>Chirurgie viscérale et digestive (SM)</t>
+  </si>
+  <si>
+    <t>SM15</t>
+  </si>
+  <si>
+    <t>Dermatologie et Vénéréologie (SM)</t>
+  </si>
+  <si>
+    <t>SM16</t>
+  </si>
+  <si>
+    <t>Endocrinologie et Métabolisme (SM)</t>
+  </si>
+  <si>
+    <t>SM17</t>
+  </si>
+  <si>
+    <t>Génétique médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM18</t>
+  </si>
+  <si>
+    <t>Gériatrie (SM)</t>
+  </si>
+  <si>
+    <t>SM19</t>
+  </si>
+  <si>
+    <t>Gynécologie médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM20</t>
+  </si>
+  <si>
+    <t>Gynécologie-obstétrique (SM)</t>
+  </si>
+  <si>
+    <t>SM21</t>
+  </si>
+  <si>
+    <t>Hématologie (SM)</t>
+  </si>
+  <si>
+    <t>SM22</t>
+  </si>
+  <si>
+    <t>Hématologie, option Maladie du sang (SM)</t>
+  </si>
+  <si>
+    <t>SM23</t>
+  </si>
+  <si>
+    <t>Hématologie, option Onco-hématologie (SM)</t>
+  </si>
+  <si>
+    <t>SM24</t>
+  </si>
+  <si>
+    <t>Gastro-entérologie et Hépatologie (SM)</t>
+  </si>
+  <si>
+    <t>SM25</t>
+  </si>
+  <si>
+    <t>Médecine du travail (SM)</t>
+  </si>
+  <si>
+    <t>SM26</t>
+  </si>
+  <si>
+    <t>Qualifié en Médecine générale (SM)</t>
+  </si>
+  <si>
+    <t>SM27</t>
+  </si>
+  <si>
+    <t>Médecine interne (SM)</t>
+  </si>
+  <si>
+    <t>SM28</t>
+  </si>
+  <si>
+    <t>Médecine nucléaire (SM)</t>
+  </si>
+  <si>
+    <t>SM29</t>
+  </si>
+  <si>
+    <t>Médecine physique et de réadaptation (SM)</t>
+  </si>
+  <si>
+    <t>SM30</t>
+  </si>
+  <si>
+    <t>Néphrologie (SM)</t>
+  </si>
+  <si>
+    <t>SM31</t>
+  </si>
+  <si>
+    <t>Neuro-chirurgie (SM)</t>
+  </si>
+  <si>
+    <t>SM32</t>
+  </si>
+  <si>
+    <t>Neurologie (SM)</t>
+  </si>
+  <si>
+    <t>SM33</t>
+  </si>
+  <si>
+    <t>Neuro-psychiatrie (SM)</t>
+  </si>
+  <si>
+    <t>SM34</t>
+  </si>
+  <si>
+    <t>ORL et Chirurgie cervico-faciale (SM)</t>
+  </si>
+  <si>
+    <t>SM35</t>
+  </si>
+  <si>
+    <t>Oncologie, option Onco-hématologie (SM)</t>
+  </si>
+  <si>
+    <t>SM36</t>
+  </si>
+  <si>
+    <t>Oncologie, option médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM37</t>
+  </si>
+  <si>
+    <t>Oncologie, option radiothérapie (SM)</t>
+  </si>
+  <si>
+    <t>SM38</t>
+  </si>
+  <si>
+    <t>Ophtalmologie (SM)</t>
+  </si>
+  <si>
+    <t>SM39</t>
+  </si>
+  <si>
+    <t>Oto-rhino-laryngologie (SM)</t>
+  </si>
+  <si>
+    <t>SM40</t>
+  </si>
+  <si>
+    <t>Pédiatrie (SM)</t>
+  </si>
+  <si>
+    <t>SM41</t>
+  </si>
+  <si>
+    <t>Pneumologie (SM)</t>
+  </si>
+  <si>
+    <t>SM42</t>
+  </si>
+  <si>
+    <t>Psychiatrie (SM)</t>
+  </si>
+  <si>
+    <t>SM43</t>
+  </si>
+  <si>
+    <t>Psychiatrie, option enfant et adolescent (SM)</t>
+  </si>
+  <si>
+    <t>SM44</t>
+  </si>
+  <si>
+    <t>Radio-diagnostic (SM)</t>
+  </si>
+  <si>
+    <t>SM45</t>
+  </si>
+  <si>
+    <t>Radio-thérapie (SM)</t>
+  </si>
+  <si>
+    <t>SM46</t>
+  </si>
+  <si>
+    <t>Médecine intensive-réanimation (SM)</t>
+  </si>
+  <si>
+    <t>SM47</t>
+  </si>
+  <si>
+    <t>Recherche médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM48</t>
+  </si>
+  <si>
+    <t>Rhumatologie (SM)</t>
+  </si>
+  <si>
+    <t>SM49</t>
+  </si>
+  <si>
+    <t>Santé publique et Médecine sociale (SM)</t>
+  </si>
+  <si>
+    <t>SM50</t>
+  </si>
+  <si>
+    <t>Stomatologie (SM)</t>
+  </si>
+  <si>
+    <t>SM51</t>
+  </si>
+  <si>
+    <t>Gynéco-obstétrique et Gynéco-médicale, option Gynéco-obstétrique (SM)</t>
+  </si>
+  <si>
+    <t>SM52</t>
+  </si>
+  <si>
+    <t>Gynéco-obstétrique et Gynéco-médicale, option Gynéco-médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM53</t>
+  </si>
+  <si>
+    <t>Spécialiste en Médecine générale (SM)</t>
+  </si>
+  <si>
+    <t>SM54</t>
+  </si>
+  <si>
+    <t>Médecine générale (SM)</t>
+  </si>
+  <si>
+    <t>SM55</t>
+  </si>
+  <si>
+    <t>Radio-diagnostic et Radio-thérapie (SM)</t>
+  </si>
+  <si>
+    <t>SM56</t>
+  </si>
+  <si>
+    <t>Chirurgie orale (SM)</t>
+  </si>
+  <si>
+    <t>SM57</t>
+  </si>
+  <si>
+    <t>Allergologie (SM)</t>
+  </si>
+  <si>
+    <t>SM58</t>
+  </si>
+  <si>
+    <t>Maladies infectieuses et tropicales (SM)</t>
+  </si>
+  <si>
+    <t>SM59</t>
+  </si>
+  <si>
+    <t>Médecine d'urgence (SM)</t>
+  </si>
+  <si>
+    <t>SM60</t>
+  </si>
+  <si>
+    <t>Médecine légale et expertises médicales (SM)</t>
+  </si>
+  <si>
+    <t>SM61</t>
+  </si>
+  <si>
+    <t>Médecine vasculaire (SM)</t>
+  </si>
+  <si>
+    <t>SM62</t>
+  </si>
+  <si>
+    <t>Endocrinologie, diabétologie, nutrition (SM)</t>
+  </si>
+  <si>
+    <t>SM63</t>
+  </si>
+  <si>
+    <t>Biologie médicale option biologie générale (SM)</t>
+  </si>
+  <si>
+    <t>SM64</t>
+  </si>
+  <si>
+    <t>Biologie médicale option médecine moléculaire, génétique et pharmacologie (SM)</t>
+  </si>
+  <si>
+    <t>SM65</t>
+  </si>
+  <si>
+    <t>Biologie médicale option hématologie et immunologie (SM)</t>
+  </si>
+  <si>
+    <t>SM66</t>
+  </si>
+  <si>
+    <t>Biologie médicale option agents infectieux (SM)</t>
+  </si>
+  <si>
+    <t>SM67</t>
+  </si>
+  <si>
+    <t>Biologie médicale option biologie de la reproduction (SM)</t>
+  </si>
+  <si>
+    <t>SM68</t>
+  </si>
+  <si>
+    <t>Chirurgie maxillo-faciale (réforme 2017) (SM)</t>
+  </si>
+  <si>
+    <t>SM69</t>
+  </si>
+  <si>
+    <t>Chirurgie pédiatrique option chirurgie viscérale pédiatrique (SM)</t>
+  </si>
+  <si>
+    <t>SM70</t>
+  </si>
+  <si>
+    <t>Chirurgie pédiatrique option orthopédie pédiatrique (SM)</t>
+  </si>
+  <si>
+    <t>SM71</t>
+  </si>
+  <si>
+    <t>Hématologie (réforme 2017) (SM)</t>
+  </si>
+  <si>
+    <t>SM72</t>
+  </si>
+  <si>
+    <t>Médecine interne et immunologie clinique (SM)</t>
+  </si>
+  <si>
+    <t>SM73</t>
+  </si>
+  <si>
+    <t>Médecine cardiovasculaire (SM)</t>
+  </si>
+  <si>
+    <t>SM74</t>
+  </si>
+  <si>
+    <t>Radiologie et imagerie médicale (SM)</t>
+  </si>
+  <si>
+    <t>SM75</t>
+  </si>
+  <si>
+    <t>Santé publique (SM)</t>
+  </si>
+  <si>
+    <t>SM76</t>
+  </si>
+  <si>
+    <t>Anesthésie-réanimation option anesthésie-pédiatrique (SM)</t>
+  </si>
+  <si>
+    <t>SM77</t>
+  </si>
+  <si>
+    <t>Chirurgie maxillo-faciale option orthodontie des dysmorphies maxillo-faciales (SM)</t>
+  </si>
+  <si>
+    <t>SM78</t>
+  </si>
+  <si>
+    <t>Chirurgie viscérale et digestive option endoscopie chirurgicale (SM)</t>
+  </si>
+  <si>
+    <t>SM79</t>
+  </si>
+  <si>
+    <t>Médecine cardiovasculaire option cardiologie interventionnelle (SM)</t>
+  </si>
+  <si>
+    <t>SM80</t>
+  </si>
+  <si>
+    <t>Médecine cardiovasculaire option imagerie cardio d'expert (SM)</t>
+  </si>
+  <si>
+    <t>SM81</t>
+  </si>
+  <si>
+    <t>Médecine cardiovasculaire option rythmologie interventionnelle et stimulation cardiaque (SM)</t>
+  </si>
+  <si>
+    <t>SM82</t>
+  </si>
+  <si>
+    <t>Médecine intensive-réanimation option réanimation pédiatrique (SM)</t>
+  </si>
+  <si>
+    <t>SM83</t>
+  </si>
+  <si>
+    <t>Néphrologie option soins intensifs néphrologiques (SM)</t>
+  </si>
+  <si>
+    <t>SM84</t>
+  </si>
+  <si>
+    <t>Neurologie option traitement interventionnel de l'ischémie cérébrale aigüe (SM)</t>
+  </si>
+  <si>
+    <t>SM85</t>
+  </si>
+  <si>
+    <t>Ophtalmo option chirurgie ophtalmopédiatrique et strabologique (SM)</t>
+  </si>
+  <si>
+    <t>SM86</t>
+  </si>
+  <si>
+    <t>ORL et chirurgie cervico-faciale option audiophonologie (SM)</t>
+  </si>
+  <si>
+    <t>SM87</t>
+  </si>
+  <si>
+    <t>Pédiatrie option néonatologie (SM)</t>
+  </si>
+  <si>
+    <t>SM88</t>
+  </si>
+  <si>
+    <t>Pédiatrie option neuropédiatrie (SM)</t>
+  </si>
+  <si>
+    <t>SM89</t>
+  </si>
+  <si>
+    <t>Pédiatrie option pneumopédiatrie (SM)</t>
+  </si>
+  <si>
+    <t>SM90</t>
+  </si>
+  <si>
+    <t>Pédiatrie option réanimation pédiatrique (SM)</t>
+  </si>
+  <si>
+    <t>SM91</t>
+  </si>
+  <si>
+    <t>Pneumologie option soins intensifs respiratoires (SM)</t>
+  </si>
+  <si>
+    <t>SM92</t>
+  </si>
+  <si>
+    <t>Psychiatrie option enfant et adolescent (SM)</t>
+  </si>
+  <si>
+    <t>SM93</t>
+  </si>
+  <si>
+    <t>Psychiatrie option psychiatrie personne âgée (SM)</t>
+  </si>
+  <si>
+    <t>SM94</t>
+  </si>
+  <si>
+    <t>Radiologie imagerie médicale option radiologie interventionnelle avancée (SM)</t>
+  </si>
+  <si>
+    <t>SM95</t>
+  </si>
+  <si>
+    <t>Santé publique option administration de la santé (SM)</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Ensemble des savoir-faire et compétences du RASS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>SI01</t>
-  </si>
-  <si>
-    <t>Exercice infirmier en pratique avancée pathologies chroniques stabilisées (SI)</t>
-  </si>
-  <si>
-    <t>SI02</t>
-  </si>
-  <si>
-    <t>Exercice infirmier en pratique avancée oncologie et hémato-oncologie (SI)</t>
-  </si>
-  <si>
-    <t>SI03</t>
-  </si>
-  <si>
-    <t>Exercice infirmier en pratique avancée maladie rénale chronique (SI)</t>
-  </si>
-  <si>
-    <t>SI04</t>
-  </si>
-  <si>
-    <t>Exercice infirmier en pratique avancée santé mentale (SI)</t>
-  </si>
-  <si>
-    <t>SI05</t>
-  </si>
-  <si>
-    <t>Exercice infirmier en pratique avancée urgences (SI)</t>
-  </si>
-  <si>
-    <t>SCD01</t>
-  </si>
-  <si>
-    <t>Orthopédie dento-faciale (SCD)</t>
-  </si>
-  <si>
-    <t>SCD02</t>
-  </si>
-  <si>
-    <t>Chirurgie orale (SCD)</t>
-  </si>
-  <si>
-    <t>SCD03</t>
-  </si>
-  <si>
-    <t>Médecine bucco-dentaire (SCD)</t>
-  </si>
-  <si>
-    <t>SM01</t>
-  </si>
-  <si>
-    <t>Anatomie et Cytologie pathologiques (SM)</t>
-  </si>
-  <si>
-    <t>SM02</t>
-  </si>
-  <si>
-    <t>Anesthésie-réanimation (SM)</t>
-  </si>
-  <si>
-    <t>SM03</t>
-  </si>
-  <si>
-    <t>Biologie médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM04</t>
-  </si>
-  <si>
-    <t>Cardiologie et Maladies vasculaires (SM)</t>
-  </si>
-  <si>
-    <t>SM05</t>
-  </si>
-  <si>
-    <t>Chirurgie générale (SM)</t>
-  </si>
-  <si>
-    <t>SM06</t>
-  </si>
-  <si>
-    <t>Chirurgie maxillo-faciale (SM)</t>
-  </si>
-  <si>
-    <t>SM07</t>
-  </si>
-  <si>
-    <t>Chirurgie maxillo-faciale et Stomatologie (SM)</t>
-  </si>
-  <si>
-    <t>SM08</t>
-  </si>
-  <si>
-    <t>Chirurgie orthopédique et Traumatologie (SM)</t>
-  </si>
-  <si>
-    <t>SM09</t>
-  </si>
-  <si>
-    <t>Chirurgie infantile (SM)</t>
-  </si>
-  <si>
-    <t>SM10</t>
-  </si>
-  <si>
-    <t>Chirurgie plastique reconstructrice et esthétique (SM)</t>
-  </si>
-  <si>
-    <t>SM11</t>
-  </si>
-  <si>
-    <t>Chirurgie thoracique et cardio-vasculaire (SM)</t>
-  </si>
-  <si>
-    <t>SM12</t>
-  </si>
-  <si>
-    <t>Chirurgie urologique (SM)</t>
-  </si>
-  <si>
-    <t>SM13</t>
-  </si>
-  <si>
-    <t>Chirurgie vasculaire (SM)</t>
-  </si>
-  <si>
-    <t>SM14</t>
-  </si>
-  <si>
-    <t>Chirurgie viscérale et digestive (SM)</t>
-  </si>
-  <si>
-    <t>SM15</t>
-  </si>
-  <si>
-    <t>Dermatologie et Vénéréologie (SM)</t>
-  </si>
-  <si>
-    <t>SM16</t>
-  </si>
-  <si>
-    <t>Endocrinologie et Métabolisme (SM)</t>
-  </si>
-  <si>
-    <t>SM17</t>
-  </si>
-  <si>
-    <t>Génétique médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM18</t>
-  </si>
-  <si>
-    <t>Gériatrie (SM)</t>
-  </si>
-  <si>
-    <t>SM19</t>
-  </si>
-  <si>
-    <t>Gynécologie médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM20</t>
-  </si>
-  <si>
-    <t>Gynécologie-obstétrique (SM)</t>
-  </si>
-  <si>
-    <t>SM21</t>
-  </si>
-  <si>
-    <t>Hématologie (SM)</t>
-  </si>
-  <si>
-    <t>SM22</t>
-  </si>
-  <si>
-    <t>Hématologie, option Maladie du sang (SM)</t>
-  </si>
-  <si>
-    <t>SM23</t>
-  </si>
-  <si>
-    <t>Hématologie, option Onco-hématologie (SM)</t>
-  </si>
-  <si>
-    <t>SM24</t>
-  </si>
-  <si>
-    <t>Gastro-entérologie et Hépatologie (SM)</t>
-  </si>
-  <si>
-    <t>SM25</t>
-  </si>
-  <si>
-    <t>Médecine du travail (SM)</t>
-  </si>
-  <si>
-    <t>SM26</t>
-  </si>
-  <si>
-    <t>Qualifié en Médecine générale (SM)</t>
-  </si>
-  <si>
-    <t>SM27</t>
-  </si>
-  <si>
-    <t>Médecine interne (SM)</t>
-  </si>
-  <si>
-    <t>SM28</t>
-  </si>
-  <si>
-    <t>Médecine nucléaire (SM)</t>
-  </si>
-  <si>
-    <t>SM29</t>
-  </si>
-  <si>
-    <t>Médecine physique et de réadaptation (SM)</t>
-  </si>
-  <si>
-    <t>SM30</t>
-  </si>
-  <si>
-    <t>Néphrologie (SM)</t>
-  </si>
-  <si>
-    <t>SM31</t>
-  </si>
-  <si>
-    <t>Neuro-chirurgie (SM)</t>
-  </si>
-  <si>
-    <t>SM32</t>
-  </si>
-  <si>
-    <t>Neurologie (SM)</t>
-  </si>
-  <si>
-    <t>SM33</t>
-  </si>
-  <si>
-    <t>Neuro-psychiatrie (SM)</t>
-  </si>
-  <si>
-    <t>SM34</t>
-  </si>
-  <si>
-    <t>ORL et Chirurgie cervico-faciale (SM)</t>
-  </si>
-  <si>
-    <t>SM35</t>
-  </si>
-  <si>
-    <t>Oncologie, option Onco-hématologie (SM)</t>
-  </si>
-  <si>
-    <t>SM36</t>
-  </si>
-  <si>
-    <t>Oncologie, option médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM37</t>
-  </si>
-  <si>
-    <t>Oncologie, option radiothérapie (SM)</t>
-  </si>
-  <si>
-    <t>SM38</t>
-  </si>
-  <si>
-    <t>Ophtalmologie (SM)</t>
-  </si>
-  <si>
-    <t>SM39</t>
-  </si>
-  <si>
-    <t>Oto-rhino-laryngologie (SM)</t>
-  </si>
-  <si>
-    <t>SM40</t>
-  </si>
-  <si>
-    <t>Pédiatrie (SM)</t>
-  </si>
-  <si>
-    <t>SM41</t>
-  </si>
-  <si>
-    <t>Pneumologie (SM)</t>
-  </si>
-  <si>
-    <t>SM42</t>
-  </si>
-  <si>
-    <t>Psychiatrie (SM)</t>
-  </si>
-  <si>
-    <t>SM43</t>
-  </si>
-  <si>
-    <t>Psychiatrie, option enfant et adolescent (SM)</t>
-  </si>
-  <si>
-    <t>SM44</t>
-  </si>
-  <si>
-    <t>Radio-diagnostic (SM)</t>
-  </si>
-  <si>
-    <t>SM45</t>
-  </si>
-  <si>
-    <t>Radio-thérapie (SM)</t>
-  </si>
-  <si>
-    <t>SM46</t>
-  </si>
-  <si>
-    <t>Médecine intensive-réanimation (SM)</t>
-  </si>
-  <si>
-    <t>SM47</t>
-  </si>
-  <si>
-    <t>Recherche médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM48</t>
-  </si>
-  <si>
-    <t>Rhumatologie (SM)</t>
-  </si>
-  <si>
-    <t>SM49</t>
-  </si>
-  <si>
-    <t>Santé publique et Médecine sociale (SM)</t>
-  </si>
-  <si>
-    <t>SM50</t>
-  </si>
-  <si>
-    <t>Stomatologie (SM)</t>
-  </si>
-  <si>
-    <t>SM51</t>
-  </si>
-  <si>
-    <t>Gynéco-obstétrique et Gynéco-médicale, option Gynéco-obstétrique (SM)</t>
-  </si>
-  <si>
-    <t>SM52</t>
-  </si>
-  <si>
-    <t>Gynéco-obstétrique et Gynéco-médicale, option Gynéco-médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM53</t>
-  </si>
-  <si>
-    <t>Spécialiste en Médecine générale (SM)</t>
-  </si>
-  <si>
-    <t>SM54</t>
-  </si>
-  <si>
-    <t>Médecine générale (SM)</t>
-  </si>
-  <si>
-    <t>SM55</t>
-  </si>
-  <si>
-    <t>Radio-diagnostic et Radio-thérapie (SM)</t>
-  </si>
-  <si>
-    <t>SM56</t>
-  </si>
-  <si>
-    <t>Chirurgie orale (SM)</t>
-  </si>
-  <si>
-    <t>SM57</t>
-  </si>
-  <si>
-    <t>Allergologie (SM)</t>
-  </si>
-  <si>
-    <t>SM58</t>
-  </si>
-  <si>
-    <t>Maladies infectieuses et tropicales (SM)</t>
-  </si>
-  <si>
-    <t>SM59</t>
-  </si>
-  <si>
-    <t>Médecine d'urgence (SM)</t>
-  </si>
-  <si>
-    <t>SM60</t>
-  </si>
-  <si>
-    <t>Médecine légale et expertises médicales (SM)</t>
-  </si>
-  <si>
-    <t>SM61</t>
-  </si>
-  <si>
-    <t>Médecine vasculaire (SM)</t>
-  </si>
-  <si>
-    <t>SM62</t>
-  </si>
-  <si>
-    <t>Endocrinologie, diabétologie, nutrition (SM)</t>
-  </si>
-  <si>
-    <t>SM63</t>
-  </si>
-  <si>
-    <t>Biologie médicale option biologie générale (SM)</t>
-  </si>
-  <si>
-    <t>SM64</t>
-  </si>
-  <si>
-    <t>Biologie médicale option médecine moléculaire, génétique et pharmacologie (SM)</t>
-  </si>
-  <si>
-    <t>SM65</t>
-  </si>
-  <si>
-    <t>Biologie médicale option hématologie et immunologie (SM)</t>
-  </si>
-  <si>
-    <t>SM66</t>
-  </si>
-  <si>
-    <t>Biologie médicale option agents infectieux (SM)</t>
-  </si>
-  <si>
-    <t>SM67</t>
-  </si>
-  <si>
-    <t>Biologie médicale option biologie de la reproduction (SM)</t>
-  </si>
-  <si>
-    <t>SM68</t>
-  </si>
-  <si>
-    <t>Chirurgie maxillo-faciale (réforme 2017) (SM)</t>
-  </si>
-  <si>
-    <t>SM69</t>
-  </si>
-  <si>
-    <t>Chirurgie pédiatrique option chirurgie viscérale pédiatrique (SM)</t>
-  </si>
-  <si>
-    <t>SM70</t>
-  </si>
-  <si>
-    <t>Chirurgie pédiatrique option orthopédie pédiatrique (SM)</t>
-  </si>
-  <si>
-    <t>SM71</t>
-  </si>
-  <si>
-    <t>Hématologie (réforme 2017) (SM)</t>
-  </si>
-  <si>
-    <t>SM72</t>
-  </si>
-  <si>
-    <t>Médecine interne et immunologie clinique (SM)</t>
-  </si>
-  <si>
-    <t>SM73</t>
-  </si>
-  <si>
-    <t>Médecine cardiovasculaire (SM)</t>
-  </si>
-  <si>
-    <t>SM74</t>
-  </si>
-  <si>
-    <t>Radiologie et imagerie médicale (SM)</t>
-  </si>
-  <si>
-    <t>SM75</t>
-  </si>
-  <si>
-    <t>Santé publique (SM)</t>
-  </si>
-  <si>
-    <t>SM76</t>
-  </si>
-  <si>
-    <t>Anesthésie-réanimation option anesthésie-pédiatrique (SM)</t>
-  </si>
-  <si>
-    <t>SM77</t>
-  </si>
-  <si>
-    <t>Chirurgie maxillo-faciale option orthodontie des dysmorphies maxillo-faciales (SM)</t>
-  </si>
-  <si>
-    <t>SM78</t>
-  </si>
-  <si>
-    <t>Chirurgie viscérale et digestive option endoscopie chirurgicale (SM)</t>
-  </si>
-  <si>
-    <t>SM79</t>
-  </si>
-  <si>
-    <t>Médecine cardiovasculaire option cardiologie interventionnelle (SM)</t>
-  </si>
-  <si>
-    <t>SM80</t>
-  </si>
-  <si>
-    <t>Médecine cardiovasculaire option imagerie cardio d'expert (SM)</t>
-  </si>
-  <si>
-    <t>SM81</t>
-  </si>
-  <si>
-    <t>Médecine cardiovasculaire option rythmologie interventionnelle et stimulation cardiaque (SM)</t>
-  </si>
-  <si>
-    <t>SM82</t>
-  </si>
-  <si>
-    <t>Médecine intensive-réanimation option réanimation pédiatrique (SM)</t>
-  </si>
-  <si>
-    <t>SM83</t>
-  </si>
-  <si>
-    <t>Néphrologie option soins intensifs néphrologiques (SM)</t>
-  </si>
-  <si>
-    <t>SM84</t>
-  </si>
-  <si>
-    <t>Neurologie option traitement interventionnel de l'ischémie cérébrale aigüe (SM)</t>
-  </si>
-  <si>
-    <t>SM85</t>
-  </si>
-  <si>
-    <t>Ophtalmo option chirurgie ophtalmopédiatrique et strabologique (SM)</t>
-  </si>
-  <si>
-    <t>SM86</t>
-  </si>
-  <si>
-    <t>ORL et chirurgie cervico-faciale option audiophonologie (SM)</t>
-  </si>
-  <si>
-    <t>SM87</t>
-  </si>
-  <si>
-    <t>Pédiatrie option néonatologie (SM)</t>
-  </si>
-  <si>
-    <t>SM88</t>
-  </si>
-  <si>
-    <t>Pédiatrie option neuropédiatrie (SM)</t>
-  </si>
-  <si>
-    <t>SM89</t>
-  </si>
-  <si>
-    <t>Pédiatrie option pneumopédiatrie (SM)</t>
-  </si>
-  <si>
-    <t>SM90</t>
-  </si>
-  <si>
-    <t>Pédiatrie option réanimation pédiatrique (SM)</t>
-  </si>
-  <si>
-    <t>SM91</t>
-  </si>
-  <si>
-    <t>Pneumologie option soins intensifs respiratoires (SM)</t>
-  </si>
-  <si>
-    <t>SM92</t>
-  </si>
-  <si>
-    <t>Psychiatrie option enfant et adolescent (SM)</t>
-  </si>
-  <si>
-    <t>SM93</t>
-  </si>
-  <si>
-    <t>Psychiatrie option psychiatrie personne âgée (SM)</t>
-  </si>
-  <si>
-    <t>SM94</t>
-  </si>
-  <si>
-    <t>Radiologie imagerie médicale option radiologie interventionnelle avancée (SM)</t>
-  </si>
-  <si>
-    <t>SM95</t>
-  </si>
-  <si>
-    <t>Santé publique option administration de la santé (SM)</t>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
@@ -1729,6 +1726,9 @@
   </si>
   <si>
     <t>Urgences pédiatriques</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R359-SurspecialiteTransversale/FHIR/TRE-R359-SurspecialiteTransversale</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1968,28 +1968,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2011,42 +2003,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -2068,234 +2060,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>520</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>526</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>530</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>542</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>546</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>550</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>554</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>556</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>558</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>560</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>566</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>568</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>516</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -2317,850 +2309,850 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3182,370 +3174,370 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>250</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3567,58 +3559,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3640,354 +3632,354 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>350</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>370</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>394</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>398</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>400</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>404</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>406</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>410</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -4009,154 +4001,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>441</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4178,34 +4170,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -4227,66 +4219,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -4308,218 +4300,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>466</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>470</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>478</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>480</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>486</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>490</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>492</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>494</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>506</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>510</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J107-EnsembleSavoirFaire-RASS.xlsx
@@ -45,7 +45,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
